--- a/commuting_allowance.xlsx
+++ b/commuting_allowance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://molgroup-my.sharepoint.com/personal/a47g079_molgroup_com/Documents/ドキュメント/★：あさか丸/actual_work_situation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:4000b_{10D5B6D0-6D9C-4104-9EFE-3646AC6C9609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4B257DE-7253-404E-878F-4E5DE783B4EF}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:4000b_{10D5B6D0-6D9C-4104-9EFE-3646AC6C9609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D471CBD6-4E79-4E65-8C90-473B0417885A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="818" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="55">
   <si>
     <t>企画管理部長殿</t>
     <rPh sb="0" eb="2">
@@ -530,6 +530,10 @@
   </si>
   <si>
     <t>○</t>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -997,6 +1001,27 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1019,9 +1044,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1053,24 +1075,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1836,13 +1840,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -1853,38 +1857,38 @@
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="34"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
     </row>
     <row r="6" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50"/>
     </row>
     <row r="7" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
     </row>
     <row r="8" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="23">
         <v>1</v>
       </c>
@@ -1910,9 +1914,9 @@
       <c r="K12" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -1923,13 +1927,13 @@
         <v>19</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1955,11 +1959,11 @@
         <v>23</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1989,12 +1993,12 @@
         <v>20</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="38"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
       <c r="H18" s="14"/>
       <c r="I18" s="15" t="s">
         <v>3</v>
@@ -2343,11 +2347,11 @@
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="L39" s="50" t="s">
+      <c r="L39" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
     </row>
     <row r="40" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="2:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2375,11 +2379,11 @@
       <c r="I41" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J41" s="47">
+      <c r="J41" s="53">
         <f>ROUNDUP(D41*G41,-3)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="48"/>
+      <c r="K41" s="54"/>
       <c r="L41" s="17" t="s">
         <v>4</v>
       </c>
@@ -2394,10 +2398,10 @@
       <c r="G42" s="1"/>
       <c r="H42" s="6"/>
       <c r="I42" s="8"/>
-      <c r="J42" s="30" t="s">
+      <c r="J42" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="K42" s="30"/>
+      <c r="K42" s="37"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
@@ -2422,6 +2426,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:C7"/>
+    <mergeCell ref="D5:E7"/>
+    <mergeCell ref="J41:K41"/>
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="L39:N39"/>
     <mergeCell ref="L12:N12"/>
@@ -2429,12 +2439,6 @@
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="D18:G18"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:C7"/>
-    <mergeCell ref="D5:E7"/>
-    <mergeCell ref="J41:K41"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.78740157480314965" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2466,13 +2470,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -2516,9 +2520,9 @@
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="2:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="23">
         <v>2</v>
       </c>
@@ -2543,11 +2547,11 @@
       <c r="K12" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L12" s="51" t="s">
+      <c r="L12" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -2558,15 +2562,15 @@
         <v>19</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -2592,11 +2596,11 @@
         <v>23</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -2637,10 +2641,10 @@
       <c r="I18" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="54" t="s">
+      <c r="J18" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="38"/>
+      <c r="K18" s="36"/>
       <c r="L18" s="20">
         <v>20</v>
       </c>
@@ -2983,11 +2987,11 @@
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="L39" s="50" t="s">
+      <c r="L39" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
     </row>
     <row r="40" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="2:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3015,7 +3019,7 @@
       <c r="I41" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J41" s="47">
+      <c r="J41" s="53">
         <f>ROUNDUP(D41*G41,-3)</f>
         <v>0</v>
       </c>
@@ -3107,13 +3111,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -3157,9 +3161,9 @@
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="2:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="23">
         <v>2</v>
       </c>
@@ -3184,11 +3188,11 @@
       <c r="K12" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L12" s="51" t="s">
+      <c r="L12" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -3199,15 +3203,15 @@
         <v>19</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -3233,11 +3237,11 @@
         <v>23</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -3278,10 +3282,10 @@
       <c r="I18" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="54" t="s">
+      <c r="J18" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="38"/>
+      <c r="K18" s="36"/>
       <c r="L18" s="20">
         <v>20</v>
       </c>
@@ -3623,11 +3627,11 @@
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="L39" s="50" t="s">
+      <c r="L39" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
     </row>
     <row r="40" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="2:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3655,7 +3659,7 @@
       <c r="I41" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J41" s="47">
+      <c r="J41" s="53">
         <f>ROUNDUP(D41*G41,-3)</f>
         <v>0</v>
       </c>
@@ -3702,11 +3706,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:C7"/>
-    <mergeCell ref="D5:E7"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="J42:K42"/>
     <mergeCell ref="L12:N12"/>
@@ -3715,6 +3714,11 @@
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="L39:N39"/>
     <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:C7"/>
+    <mergeCell ref="D5:E7"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.78740157480314965" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3747,13 +3751,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -3797,9 +3801,9 @@
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="2:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="23">
         <v>2</v>
       </c>
@@ -3824,11 +3828,11 @@
       <c r="K12" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L12" s="51" t="s">
+      <c r="L12" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -3839,15 +3843,15 @@
         <v>19</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -3873,11 +3877,11 @@
         <v>23</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -3918,10 +3922,10 @@
       <c r="I18" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="54" t="s">
+      <c r="J18" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="38"/>
+      <c r="K18" s="36"/>
       <c r="L18" s="20">
         <v>20</v>
       </c>
@@ -4263,11 +4267,11 @@
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="L39" s="50" t="s">
+      <c r="L39" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
     </row>
     <row r="40" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="2:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4295,7 +4299,7 @@
       <c r="I41" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J41" s="47">
+      <c r="J41" s="53">
         <f>ROUNDUP(D41*G41,-3)</f>
         <v>0</v>
       </c>
@@ -4342,11 +4346,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:C7"/>
-    <mergeCell ref="D5:E7"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="J42:K42"/>
     <mergeCell ref="L12:N12"/>
@@ -4355,6 +4354,11 @@
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="L39:N39"/>
     <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:C7"/>
+    <mergeCell ref="D5:E7"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.78740157480314965" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4387,13 +4391,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -4435,9 +4439,9 @@
     </row>
     <row r="8" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="23">
         <v>2</v>
       </c>
@@ -4462,11 +4466,11 @@
       <c r="K12" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L12" s="51" t="s">
+      <c r="L12" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -4477,15 +4481,15 @@
         <v>19</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -4511,11 +4515,11 @@
         <v>23</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -4545,22 +4549,22 @@
         <v>20</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="38"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
       <c r="H18" s="14">
         <v>27</v>
       </c>
       <c r="I18" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="54" t="s">
+      <c r="J18" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="38"/>
+      <c r="K18" s="36"/>
       <c r="L18" s="20">
         <v>20</v>
       </c>
@@ -4914,11 +4918,11 @@
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L39" s="50" t="s">
+      <c r="L39" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
     </row>
     <row r="40" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="2:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4993,11 +4997,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:C7"/>
-    <mergeCell ref="D5:E7"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="J41:K41"/>
     <mergeCell ref="J42:K42"/>
@@ -5007,6 +5006,11 @@
     <mergeCell ref="D18:G18"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="L39:N39"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:C7"/>
+    <mergeCell ref="D5:E7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.78740157480314965" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5039,13 +5043,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -5087,9 +5091,9 @@
     </row>
     <row r="8" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="23">
         <v>2</v>
       </c>
@@ -5114,11 +5118,11 @@
       <c r="K12" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L12" s="51" t="s">
+      <c r="L12" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -5129,15 +5133,15 @@
         <v>19</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -5163,11 +5167,11 @@
         <v>23</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -5197,22 +5201,22 @@
         <v>20</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="38"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
       <c r="H18" s="14">
         <v>14</v>
       </c>
       <c r="I18" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="54" t="s">
+      <c r="J18" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="38"/>
+      <c r="K18" s="36"/>
       <c r="L18" s="20">
         <v>20</v>
       </c>
@@ -5562,11 +5566,11 @@
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="L39" s="50" t="s">
+      <c r="L39" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
     </row>
     <row r="40" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="2:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5641,11 +5645,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:C7"/>
-    <mergeCell ref="D5:E7"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="J41:K41"/>
     <mergeCell ref="J42:K42"/>
@@ -5655,6 +5654,11 @@
     <mergeCell ref="D18:G18"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="L39:N39"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:C7"/>
+    <mergeCell ref="D5:E7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.78740157480314965" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5670,8 +5674,8 @@
   </sheetPr>
   <dimension ref="B1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5687,13 +5691,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -5735,9 +5739,9 @@
     </row>
     <row r="8" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="23">
         <v>2</v>
       </c>
@@ -5762,11 +5766,11 @@
       <c r="K12" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L12" s="51" t="s">
+      <c r="L12" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -5777,15 +5781,15 @@
         <v>19</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -5811,11 +5815,11 @@
         <v>23</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -5845,22 +5849,22 @@
         <v>20</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="38"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
       <c r="H18" s="14">
         <v>17</v>
       </c>
       <c r="I18" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="54" t="s">
+      <c r="J18" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="38"/>
+      <c r="K18" s="36"/>
       <c r="L18" s="20">
         <v>20</v>
       </c>
@@ -6196,7 +6200,7 @@
     <row r="38" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="5"/>
       <c r="D38" s="25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>17</v>
@@ -6210,11 +6214,11 @@
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="L39" s="50" t="s">
+      <c r="L39" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
     </row>
     <row r="40" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="2:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6289,6 +6293,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:C7"/>
+    <mergeCell ref="D5:E7"/>
     <mergeCell ref="J41:K41"/>
     <mergeCell ref="J42:K42"/>
     <mergeCell ref="L12:N12"/>
@@ -6297,12 +6307,6 @@
     <mergeCell ref="D18:G18"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="L39:N39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:C7"/>
-    <mergeCell ref="D5:E7"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.78740157480314965" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
